--- a/Code/Results/Cases/Case_9_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.22567187767577</v>
+        <v>13.05323162429383</v>
       </c>
       <c r="C2">
-        <v>7.621186029558831</v>
+        <v>8.628679800959787</v>
       </c>
       <c r="D2">
-        <v>5.643436776407639</v>
+        <v>6.334618820904973</v>
       </c>
       <c r="E2">
-        <v>10.36003902991046</v>
+        <v>10.74610608717609</v>
       </c>
       <c r="F2">
-        <v>32.785308229253</v>
+        <v>30.08829636791158</v>
       </c>
       <c r="G2">
-        <v>42.1341962248208</v>
+        <v>37.21573899850361</v>
       </c>
       <c r="H2">
-        <v>2.708308278782094</v>
+        <v>2.571729675120435</v>
       </c>
       <c r="I2">
-        <v>3.933754119222779</v>
+        <v>3.658073668307808</v>
       </c>
       <c r="J2">
-        <v>13.52161117040414</v>
+        <v>12.58790292185373</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.889974011170096</v>
+        <v>15.37287215377347</v>
       </c>
       <c r="M2">
-        <v>11.66688622008646</v>
+        <v>13.46572051900835</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.889324729202919</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.98123030956728</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.34477964677668</v>
+        <v>12.21711133506878</v>
       </c>
       <c r="C3">
-        <v>7.165457201350659</v>
+        <v>8.005524382969382</v>
       </c>
       <c r="D3">
-        <v>5.323036188758183</v>
+        <v>5.957816819536371</v>
       </c>
       <c r="E3">
-        <v>9.790744733223972</v>
+        <v>10.16347566452346</v>
       </c>
       <c r="F3">
-        <v>31.85844322544703</v>
+        <v>29.42754145964044</v>
       </c>
       <c r="G3">
-        <v>40.88486409007102</v>
+        <v>36.49208109577216</v>
       </c>
       <c r="H3">
-        <v>2.970434977463005</v>
+        <v>2.815553049274545</v>
       </c>
       <c r="I3">
-        <v>4.137871531241879</v>
+        <v>3.83299508288744</v>
       </c>
       <c r="J3">
-        <v>13.35353833695865</v>
+        <v>12.46851811815324</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.643988483947911</v>
+        <v>15.40620436028168</v>
       </c>
       <c r="M3">
-        <v>10.94713671901922</v>
+        <v>13.3199521725073</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.659646634221604</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.23821812440529</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.77020275296593</v>
+        <v>11.67194199343987</v>
       </c>
       <c r="C4">
-        <v>6.87587293833684</v>
+        <v>7.606034095196762</v>
       </c>
       <c r="D4">
-        <v>5.118913471225233</v>
+        <v>5.71738730015631</v>
       </c>
       <c r="E4">
-        <v>9.425276041914554</v>
+        <v>9.789755367538914</v>
       </c>
       <c r="F4">
-        <v>31.2769296199539</v>
+        <v>29.01395982041145</v>
       </c>
       <c r="G4">
-        <v>40.09850817616527</v>
+        <v>36.04197855681646</v>
       </c>
       <c r="H4">
-        <v>3.13710394333761</v>
+        <v>2.970721901989924</v>
       </c>
       <c r="I4">
-        <v>4.267991111930197</v>
+        <v>3.944849863379406</v>
       </c>
       <c r="J4">
-        <v>13.24995563407523</v>
+        <v>12.39323132225473</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.4875215214668</v>
+        <v>15.42138664042478</v>
       </c>
       <c r="M4">
-        <v>10.48144906905518</v>
+        <v>13.24422332229311</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.513714351169879</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.75732629636322</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.52449271141446</v>
+        <v>11.43911387848532</v>
       </c>
       <c r="C5">
-        <v>6.767204118316306</v>
+        <v>7.450714286850824</v>
       </c>
       <c r="D5">
-        <v>5.039607213937452</v>
+        <v>5.622112027428133</v>
       </c>
       <c r="E5">
-        <v>9.274692828921674</v>
+        <v>9.63550071864733</v>
       </c>
       <c r="F5">
-        <v>31.01586377924275</v>
+        <v>28.82558816092916</v>
       </c>
       <c r="G5">
-        <v>39.73613010439978</v>
+        <v>35.82583889261665</v>
       </c>
       <c r="H5">
-        <v>3.206871010626938</v>
+        <v>3.035673197638825</v>
       </c>
       <c r="I5">
-        <v>4.32477385542447</v>
+        <v>3.994486818439332</v>
       </c>
       <c r="J5">
-        <v>13.20038744236069</v>
+        <v>12.35591879938041</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.421737627313894</v>
+        <v>15.41458779923549</v>
       </c>
       <c r="M5">
-        <v>10.28808220735747</v>
+        <v>13.20816281171024</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.452455834457409</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.5572609819918</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.47945428816536</v>
+        <v>11.39672709999487</v>
       </c>
       <c r="C6">
-        <v>6.763437721562335</v>
+        <v>7.438999997290225</v>
       </c>
       <c r="D6">
-        <v>5.033285434625305</v>
+        <v>5.612165787826648</v>
       </c>
       <c r="E6">
-        <v>9.252249247955143</v>
+        <v>9.61206337964153</v>
       </c>
       <c r="F6">
-        <v>30.94637840019176</v>
+        <v>28.77220774985451</v>
       </c>
       <c r="G6">
-        <v>39.62990129203165</v>
+        <v>35.75153810497474</v>
       </c>
       <c r="H6">
-        <v>3.219013996504011</v>
+        <v>3.046938895499926</v>
       </c>
       <c r="I6">
-        <v>4.3375049189681</v>
+        <v>4.006539558854824</v>
       </c>
       <c r="J6">
-        <v>13.18325057522331</v>
+        <v>12.34218296325891</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.409882162722784</v>
+        <v>15.39916234516548</v>
       </c>
       <c r="M6">
-        <v>10.25850531910803</v>
+        <v>13.19171406071932</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.441484701126574</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.52620986087554</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.75699840619819</v>
+        <v>11.66091118081424</v>
       </c>
       <c r="C7">
-        <v>6.912949619807596</v>
+        <v>7.637026981070345</v>
       </c>
       <c r="D7">
-        <v>5.13643819267097</v>
+        <v>5.741310528852938</v>
       </c>
       <c r="E7">
-        <v>9.430745825791407</v>
+        <v>9.797758738364438</v>
       </c>
       <c r="F7">
-        <v>31.20321102697397</v>
+        <v>28.91821550550702</v>
       </c>
       <c r="G7">
-        <v>39.96985647434474</v>
+        <v>35.9809307190088</v>
       </c>
       <c r="H7">
-        <v>3.139304978268608</v>
+        <v>2.973377477553482</v>
       </c>
       <c r="I7">
-        <v>4.277316663840917</v>
+        <v>3.956114069023449</v>
       </c>
       <c r="J7">
-        <v>13.22510580878169</v>
+        <v>12.32076994086828</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.484342776784947</v>
+        <v>15.36592174328396</v>
       </c>
       <c r="M7">
-        <v>10.48659075746981</v>
+        <v>13.20055189295655</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.509764067474815</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.76013006044586</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.9167775544686</v>
+        <v>12.76316642160766</v>
       </c>
       <c r="C8">
-        <v>7.513501763173553</v>
+        <v>8.448249514034391</v>
       </c>
       <c r="D8">
-        <v>5.557397282168439</v>
+        <v>6.254712988828739</v>
       </c>
       <c r="E8">
-        <v>10.17634114715858</v>
+        <v>10.56786885980916</v>
       </c>
       <c r="F8">
-        <v>32.37895357925169</v>
+        <v>29.67826632671975</v>
       </c>
       <c r="G8">
-        <v>41.55000132420608</v>
+        <v>36.98421110974012</v>
       </c>
       <c r="H8">
-        <v>2.799125242208278</v>
+        <v>2.658242957232788</v>
       </c>
       <c r="I8">
-        <v>4.014071723735945</v>
+        <v>3.732236491878886</v>
       </c>
       <c r="J8">
-        <v>13.4324089868927</v>
+        <v>12.35370639707083</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.803419306304841</v>
+        <v>15.28487475275807</v>
       </c>
       <c r="M8">
-        <v>11.43315994459416</v>
+        <v>13.32516632102055</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.805053508323122</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.73452413300675</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.94153272183785</v>
+        <v>14.68479345042391</v>
       </c>
       <c r="C9">
-        <v>8.551297237338256</v>
+        <v>9.863426237496592</v>
       </c>
       <c r="D9">
-        <v>6.292631053993368</v>
+        <v>7.127412794898362</v>
       </c>
       <c r="E9">
-        <v>11.49789038626015</v>
+        <v>11.92443115802913</v>
       </c>
       <c r="F9">
-        <v>34.69489223020624</v>
+        <v>31.32633499102733</v>
       </c>
       <c r="G9">
-        <v>44.69160743240966</v>
+        <v>38.91042514318684</v>
       </c>
       <c r="H9">
-        <v>2.174136216123792</v>
+        <v>2.078224455992594</v>
       </c>
       <c r="I9">
-        <v>3.520944343820815</v>
+        <v>3.309180263283554</v>
       </c>
       <c r="J9">
-        <v>13.87704600129162</v>
+        <v>12.62376352594706</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.388328984599463</v>
+        <v>15.20938916966609</v>
       </c>
       <c r="M9">
-        <v>13.08825349918581</v>
+        <v>13.78124034847007</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.351181662071871</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.4426205056759</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.26380391674997</v>
+        <v>15.94852709391089</v>
       </c>
       <c r="C10">
-        <v>9.274258170961977</v>
+        <v>10.78417624118999</v>
       </c>
       <c r="D10">
-        <v>6.742588188788947</v>
+        <v>7.69776792436102</v>
       </c>
       <c r="E10">
-        <v>12.17240955632219</v>
+        <v>12.63454670818437</v>
       </c>
       <c r="F10">
-        <v>35.95560229848925</v>
+        <v>32.01654337652757</v>
       </c>
       <c r="G10">
-        <v>46.36042983800493</v>
+        <v>40.11811068662633</v>
       </c>
       <c r="H10">
-        <v>1.779087603919042</v>
+        <v>1.717707122851822</v>
       </c>
       <c r="I10">
-        <v>3.192841189511465</v>
+        <v>3.034101217479319</v>
       </c>
       <c r="J10">
-        <v>14.09264906364137</v>
+        <v>12.45578898782952</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.66965263614012</v>
+        <v>14.93585026372687</v>
       </c>
       <c r="M10">
-        <v>14.18845321992265</v>
+        <v>13.96974583051067</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.603770597493442</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.56584474757017</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.79943707167925</v>
+        <v>16.51546675981145</v>
       </c>
       <c r="C11">
-        <v>9.578751888890814</v>
+        <v>10.93206987820228</v>
       </c>
       <c r="D11">
-        <v>6.452933403847841</v>
+        <v>7.428141314454409</v>
       </c>
       <c r="E11">
-        <v>10.61675952647158</v>
+        <v>11.07830546379086</v>
       </c>
       <c r="F11">
-        <v>33.57881375976937</v>
+        <v>29.5910517137712</v>
       </c>
       <c r="G11">
-        <v>42.92863102588914</v>
+        <v>37.72283151394163</v>
       </c>
       <c r="H11">
-        <v>2.785543412214351</v>
+        <v>2.752709185486324</v>
       </c>
       <c r="I11">
-        <v>3.123902806308493</v>
+        <v>2.985889156684248</v>
       </c>
       <c r="J11">
-        <v>13.33197862564095</v>
+        <v>11.32392468325632</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.818515178764825</v>
+        <v>13.82712971333499</v>
       </c>
       <c r="M11">
-        <v>14.63919423922665</v>
+        <v>12.97664944051644</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.755292325129803</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.97714639612025</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.99625238825579</v>
+        <v>16.74762078766411</v>
       </c>
       <c r="C12">
-        <v>9.644851960711684</v>
+        <v>10.8370225324579</v>
       </c>
       <c r="D12">
-        <v>6.087949625684363</v>
+        <v>7.031607297400949</v>
       </c>
       <c r="E12">
-        <v>9.183643604387946</v>
+        <v>9.624012757419091</v>
       </c>
       <c r="F12">
-        <v>31.39724218756776</v>
+        <v>27.58873418185259</v>
       </c>
       <c r="G12">
-        <v>39.83575929384161</v>
+        <v>35.41208659328574</v>
       </c>
       <c r="H12">
-        <v>4.177327594840287</v>
+        <v>4.154939036136412</v>
       </c>
       <c r="I12">
-        <v>3.112926107018098</v>
+        <v>2.977564865543749</v>
       </c>
       <c r="J12">
-        <v>12.68578993928076</v>
+        <v>10.65110926412247</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.124427154887713</v>
+        <v>13.09202854988458</v>
       </c>
       <c r="M12">
-        <v>14.78856262438755</v>
+        <v>12.20976393378449</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.074900850264756</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.09218024731438</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.93967667367368</v>
+        <v>16.73248793955345</v>
       </c>
       <c r="C13">
-        <v>9.579411899714447</v>
+        <v>10.60047837061634</v>
       </c>
       <c r="D13">
-        <v>5.65419021285543</v>
+        <v>6.503456605389618</v>
       </c>
       <c r="E13">
-        <v>7.753531076684816</v>
+        <v>8.147653117655157</v>
       </c>
       <c r="F13">
-        <v>29.11037555002726</v>
+        <v>25.75210330082263</v>
       </c>
       <c r="G13">
-        <v>36.60332924499127</v>
+        <v>32.74813368965184</v>
       </c>
       <c r="H13">
-        <v>5.612607518899846</v>
+        <v>5.592302250281828</v>
       </c>
       <c r="I13">
-        <v>3.160284952371383</v>
+        <v>3.015439433877531</v>
       </c>
       <c r="J13">
-        <v>12.05237102654992</v>
+        <v>10.30410780620156</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.526963796006122</v>
+        <v>12.55448875159168</v>
       </c>
       <c r="M13">
-        <v>14.72909044585395</v>
+        <v>11.557869223799</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.502785827567703</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.00046335019825</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.78282285362829</v>
+        <v>16.60821766400848</v>
       </c>
       <c r="C14">
-        <v>9.483122462758987</v>
+        <v>10.37614582042927</v>
       </c>
       <c r="D14">
-        <v>5.317857416431281</v>
+        <v>6.072192145018794</v>
       </c>
       <c r="E14">
-        <v>6.77459268535461</v>
+        <v>7.125218675280889</v>
       </c>
       <c r="F14">
-        <v>27.44388946764935</v>
+        <v>24.51970838612947</v>
       </c>
       <c r="G14">
-        <v>34.24256525397802</v>
+        <v>30.70980896345975</v>
       </c>
       <c r="H14">
-        <v>6.629413951537447</v>
+        <v>6.608680552022038</v>
       </c>
       <c r="I14">
-        <v>3.22226928170911</v>
+        <v>3.066009355378273</v>
       </c>
       <c r="J14">
-        <v>11.61363010236062</v>
+        <v>10.17743883682876</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.187930571440238</v>
+        <v>12.25236322995249</v>
       </c>
       <c r="M14">
-        <v>14.59445860832499</v>
+        <v>11.1511407536717</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.185870074939122</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.84329657641906</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.68661551959583</v>
+        <v>16.52183544626156</v>
       </c>
       <c r="C15">
-        <v>9.443054583815464</v>
+        <v>10.30105630497672</v>
       </c>
       <c r="D15">
-        <v>5.226106454569833</v>
+        <v>5.944625546970163</v>
       </c>
       <c r="E15">
-        <v>6.535036524904779</v>
+        <v>6.871661136488155</v>
       </c>
       <c r="F15">
-        <v>26.99435677826372</v>
+        <v>24.22787464459607</v>
       </c>
       <c r="G15">
-        <v>33.59993522620663</v>
+        <v>30.12150328544172</v>
       </c>
       <c r="H15">
-        <v>6.867549180176143</v>
+        <v>6.84597046872091</v>
       </c>
       <c r="I15">
-        <v>3.254623724721729</v>
+        <v>3.093710590781125</v>
       </c>
       <c r="J15">
-        <v>11.50202613148323</v>
+        <v>10.18877724409936</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.115384938903665</v>
+        <v>12.19849079501688</v>
       </c>
       <c r="M15">
-        <v>14.51864521937351</v>
+        <v>11.06317189644103</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.120241299933854</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.76195873556088</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.15167406519043</v>
+        <v>16.00099054716739</v>
       </c>
       <c r="C16">
-        <v>9.175935494840353</v>
+        <v>10.00720763154021</v>
       </c>
       <c r="D16">
-        <v>5.105437938888861</v>
+        <v>5.72426903050988</v>
       </c>
       <c r="E16">
-        <v>6.44994397318724</v>
+        <v>6.764550228908073</v>
       </c>
       <c r="F16">
-        <v>26.81086619374821</v>
+        <v>24.45174875172819</v>
       </c>
       <c r="G16">
-        <v>33.36151046169888</v>
+        <v>29.65952324499101</v>
       </c>
       <c r="H16">
-        <v>6.686064856166301</v>
+        <v>6.656586168663575</v>
       </c>
       <c r="I16">
-        <v>3.389564294101851</v>
+        <v>3.204676199585487</v>
       </c>
       <c r="J16">
-        <v>11.51970245749819</v>
+        <v>10.60586411694884</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.092804940643473</v>
+        <v>12.43618872869177</v>
       </c>
       <c r="M16">
-        <v>14.08159981753443</v>
+        <v>11.22500561401238</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.11128185542066</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.32760193560035</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.81879640914104</v>
+        <v>15.66194940560843</v>
       </c>
       <c r="C17">
-        <v>9.021575246199401</v>
+        <v>9.897913896793444</v>
       </c>
       <c r="D17">
-        <v>5.19990603451321</v>
+        <v>5.803939351883251</v>
       </c>
       <c r="E17">
-        <v>6.908421567427601</v>
+        <v>7.229020248762263</v>
       </c>
       <c r="F17">
-        <v>27.56501591504505</v>
+        <v>25.2519902958445</v>
       </c>
       <c r="G17">
-        <v>34.44899090293593</v>
+        <v>30.44998878679139</v>
       </c>
       <c r="H17">
-        <v>5.980669559179282</v>
+        <v>5.943625490943509</v>
       </c>
       <c r="I17">
-        <v>3.461258452917167</v>
+        <v>3.264722970740539</v>
       </c>
       <c r="J17">
-        <v>11.76396414115665</v>
+        <v>10.97227742821921</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.23995008107469</v>
+        <v>12.78243393244531</v>
       </c>
       <c r="M17">
-        <v>13.81413309087926</v>
+        <v>11.54169994178344</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.25757556138509</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.07338544925051</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.63732796769392</v>
+        <v>15.45377427369362</v>
       </c>
       <c r="C18">
-        <v>8.924060990071403</v>
+        <v>9.922326787461564</v>
       </c>
       <c r="D18">
-        <v>5.478745352819804</v>
+        <v>6.126461450228316</v>
       </c>
       <c r="E18">
-        <v>7.956318055644108</v>
+        <v>8.300146384558868</v>
       </c>
       <c r="F18">
-        <v>29.28043231633017</v>
+        <v>26.75933565477436</v>
       </c>
       <c r="G18">
-        <v>36.91239229600764</v>
+        <v>32.3991375556266</v>
       </c>
       <c r="H18">
-        <v>4.773722314657813</v>
+        <v>4.726920363169897</v>
       </c>
       <c r="I18">
-        <v>3.474360622087366</v>
+        <v>3.273330311555333</v>
       </c>
       <c r="J18">
-        <v>12.25802381966407</v>
+        <v>11.43166487402847</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.63924780565509</v>
+        <v>13.33222925722909</v>
       </c>
       <c r="M18">
-        <v>13.66384613054352</v>
+        <v>12.0883191091206</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.644145451843744</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.94952991779651</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.58044158838196</v>
+        <v>15.3573553175141</v>
       </c>
       <c r="C19">
-        <v>8.943853808189113</v>
+        <v>10.11339244935313</v>
       </c>
       <c r="D19">
-        <v>5.907726998318521</v>
+        <v>6.632418922100963</v>
       </c>
       <c r="E19">
-        <v>9.462297918583925</v>
+        <v>9.838296468031432</v>
       </c>
       <c r="F19">
-        <v>31.55405740653204</v>
+        <v>28.67583622653695</v>
       </c>
       <c r="G19">
-        <v>40.13080971320137</v>
+        <v>34.95994030331026</v>
       </c>
       <c r="H19">
-        <v>3.359668848606919</v>
+        <v>3.298642622269125</v>
       </c>
       <c r="I19">
-        <v>3.453765429728668</v>
+        <v>3.258136206905173</v>
       </c>
       <c r="J19">
-        <v>12.89510689451173</v>
+        <v>11.94478761702649</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.307674134467857</v>
+        <v>13.99249412341068</v>
       </c>
       <c r="M19">
-        <v>13.63497757303437</v>
+        <v>12.76287182399105</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.292419884503987</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.95428412372175</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.90309183198385</v>
+        <v>15.60417341219418</v>
       </c>
       <c r="C20">
-        <v>9.182145073396082</v>
+        <v>10.65185198602063</v>
       </c>
       <c r="D20">
-        <v>6.669470449755257</v>
+        <v>7.561448161709754</v>
       </c>
       <c r="E20">
-        <v>12.00750603904752</v>
+        <v>12.44748622354852</v>
       </c>
       <c r="F20">
-        <v>35.42346854151451</v>
+        <v>31.76919817460728</v>
       </c>
       <c r="G20">
-        <v>45.57308691036728</v>
+        <v>39.34863524783081</v>
       </c>
       <c r="H20">
-        <v>1.88410989106535</v>
+        <v>1.810939448966508</v>
       </c>
       <c r="I20">
-        <v>3.30717174818383</v>
+        <v>3.137719812740217</v>
       </c>
       <c r="J20">
-        <v>13.96238474708895</v>
+        <v>12.60953023185752</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.585765348483207</v>
+        <v>14.95888052777131</v>
       </c>
       <c r="M20">
-        <v>13.92600500943203</v>
+        <v>13.8662639253823</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.531747788089621</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.29888078412677</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.87864991233168</v>
+        <v>16.53736650659814</v>
       </c>
       <c r="C21">
-        <v>9.708156993208007</v>
+        <v>11.28513585955377</v>
       </c>
       <c r="D21">
-        <v>7.082533186677398</v>
+        <v>8.214290725213099</v>
       </c>
       <c r="E21">
-        <v>12.83640413723128</v>
+        <v>13.3646310182337</v>
       </c>
       <c r="F21">
-        <v>36.92472422099804</v>
+        <v>32.20476015957095</v>
       </c>
       <c r="G21">
-        <v>47.62116044597932</v>
+        <v>41.7216220414624</v>
       </c>
       <c r="H21">
-        <v>1.589856123099766</v>
+        <v>1.624612317937143</v>
       </c>
       <c r="I21">
-        <v>3.045834435278918</v>
+        <v>2.92723812842926</v>
       </c>
       <c r="J21">
-        <v>14.2920569682294</v>
+        <v>11.75239354130705</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.978070431753245</v>
+        <v>14.67158034029777</v>
       </c>
       <c r="M21">
-        <v>14.73574836576221</v>
+        <v>13.93197599661661</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.881139426362416</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.11396748233729</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.49594843005637</v>
+        <v>17.13047909511956</v>
       </c>
       <c r="C22">
-        <v>10.00400508534959</v>
+        <v>11.63286523560603</v>
       </c>
       <c r="D22">
-        <v>7.297419468210473</v>
+        <v>8.585476731778236</v>
       </c>
       <c r="E22">
-        <v>13.24290942805505</v>
+        <v>13.82947209880236</v>
       </c>
       <c r="F22">
-        <v>37.79300973277402</v>
+        <v>32.36857230292836</v>
       </c>
       <c r="G22">
-        <v>48.82476189845013</v>
+        <v>43.25066412655102</v>
       </c>
       <c r="H22">
-        <v>1.795083447276098</v>
+        <v>1.806313462176581</v>
       </c>
       <c r="I22">
-        <v>2.86994729859823</v>
+        <v>2.781378808916675</v>
       </c>
       <c r="J22">
-        <v>14.48520483248961</v>
+        <v>11.15476409618157</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.170188818801927</v>
+        <v>14.45473157961073</v>
       </c>
       <c r="M22">
-        <v>15.23515795125609</v>
+        <v>13.94594840065087</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.046070791014385</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.61403105097913</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.17756749493634</v>
+        <v>16.82234832244887</v>
       </c>
       <c r="C23">
-        <v>9.813131070319143</v>
+        <v>11.42554077872541</v>
       </c>
       <c r="D23">
-        <v>7.167150334165481</v>
+        <v>8.356249722758966</v>
       </c>
       <c r="E23">
-        <v>13.02065758324883</v>
+        <v>13.56953227917504</v>
       </c>
       <c r="F23">
-        <v>37.40052160272278</v>
+        <v>32.41599405515304</v>
       </c>
       <c r="G23">
-        <v>48.30617605257265</v>
+        <v>42.42458849815836</v>
       </c>
       <c r="H23">
-        <v>1.68714572108426</v>
+        <v>1.711819977054155</v>
       </c>
       <c r="I23">
-        <v>2.95166793299299</v>
+        <v>2.843973887848376</v>
       </c>
       <c r="J23">
-        <v>14.40793073918248</v>
+        <v>11.59968457550687</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.070349452356714</v>
+        <v>14.637354115975</v>
       </c>
       <c r="M23">
-        <v>14.96374926994017</v>
+        <v>14.01372632208813</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.962653712824537</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.34548227082808</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.90257453096577</v>
+        <v>15.5980226401883</v>
       </c>
       <c r="C24">
-        <v>9.124241100257711</v>
+        <v>10.61197181015436</v>
       </c>
       <c r="D24">
-        <v>6.68385055478846</v>
+        <v>7.585897466831545</v>
       </c>
       <c r="E24">
-        <v>12.1593476421874</v>
+        <v>12.60353406321185</v>
       </c>
       <c r="F24">
-        <v>35.77398971132277</v>
+        <v>32.07131047735734</v>
       </c>
       <c r="G24">
-        <v>46.10667140646441</v>
+        <v>39.78128627048703</v>
       </c>
       <c r="H24">
-        <v>1.859806755305399</v>
+        <v>1.787160994309433</v>
       </c>
       <c r="I24">
-        <v>3.287808070087237</v>
+        <v>3.115472354091774</v>
       </c>
       <c r="J24">
-        <v>14.07399322774847</v>
+        <v>12.7067136656852</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.677724910523787</v>
+        <v>15.09513436736634</v>
       </c>
       <c r="M24">
-        <v>13.90481916466792</v>
+        <v>14.00266336055752</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.621597312633467</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.28223624581794</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.40691547369484</v>
+        <v>14.17772824033056</v>
       </c>
       <c r="C25">
-        <v>8.337919956667179</v>
+        <v>9.55844927689566</v>
       </c>
       <c r="D25">
-        <v>6.128805948853016</v>
+        <v>6.913090224603101</v>
       </c>
       <c r="E25">
-        <v>11.16592438578611</v>
+        <v>11.5772566915233</v>
       </c>
       <c r="F25">
-        <v>33.96559333957541</v>
+        <v>30.83455583681416</v>
       </c>
       <c r="G25">
-        <v>43.65787929717074</v>
+        <v>38.16079072302964</v>
       </c>
       <c r="H25">
-        <v>2.340730854124821</v>
+        <v>2.231565302726471</v>
       </c>
       <c r="I25">
-        <v>3.666160610148103</v>
+        <v>3.437458235555575</v>
       </c>
       <c r="J25">
-        <v>13.71579876785314</v>
+        <v>12.58828565904116</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.231375373055969</v>
+        <v>15.19691048767633</v>
       </c>
       <c r="M25">
-        <v>12.67250040913691</v>
+        <v>13.61065115372612</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.206303553164582</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.01363344129606</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
